--- a/IKEA_API/ESheet_second.xlsx
+++ b/IKEA_API/ESheet_second.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Storage box with lid</t>
+          <t>Dish drainer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>White wine glass</t>
+          <t>Scented candle in glass</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Storage box with lid</t>
+          <t>Dish drainer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Scented candle in glass</t>
+          <t>Hook</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dish drainer</t>
+          <t>Rug, low pile</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hook</t>
+          <t>Cutting box</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rug, low pile</t>
+          <t>Mirror</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shower curtain</t>
+          <t>Hook</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cushion cover</t>
+          <t>Throw</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dish drainer</t>
+          <t>Basket</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mirror</t>
+          <t>Bag</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hook</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Block-out curtains, 1 pair</t>
+          <t>Integrated washing machine</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -801,16 +801,1716 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Side unit</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chest of 3 drawers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Rug, low pile</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>39</t>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Door with hinges</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bowl</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Throw</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Block-out curtains, 1 pair</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bed tent</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rug, flatwoven</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bedspread</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mug</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LED lighting chain with 24 lights</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Headrest</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cover for back cushion</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Table top</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Storage box with lid</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cover for seat module</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cover for back rest</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Headrest</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Back cushion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cover for armrest</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cover for back rest</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Door with blackboard surface</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Wall cabinet with 2 doors</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cover for seat cushion, 3-seat sofa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cover for backrest/cushion</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LED 3-armed candelabra</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Backrest</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Apron</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cover for seat cushion, 2-seat sofa</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cover for headrest</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Back rest</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Table top</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wall cabinet</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cover panel with blackboard surface</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Backrest with cushion</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Base cabinet with shelves</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Wall cabinet horizontal w push-open</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Armrest</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cover for headrest</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cover for armrest with cushion</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cover for seat cushion, armchair</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Armrest with cushion</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Wall cabinet with shelves</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Decorate kit 3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Wall cabinet w dish drainer/2 doors</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Corner base cabinet with shelf</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Wall cabinet horizontal w 2 doors</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wall cabinet horizontal</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Wall cabinet with shelves/2 doors</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Base cabinet for sink</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tea towel</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Wall cab horizo 2 doors w push-open</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Bed frame</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Top cabinet</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Baking kit 2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Top cabinet for fridge/freezer</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Corner wall cabinet with shelves</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Corner wall cabinet with carousel</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Base cabinet with wire baskets</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Wall cabinet for microwave oven</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Waste bin</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Scented tealight</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>18-piece cutlery set</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cushion</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Storage box with lid</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Dish drainer</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Scented candle in glass</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Dish drainer</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Storage box with lid</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hook</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rug, low pile</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>White wine glass</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cushion cover</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Block-out curtains, 1 pair</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Throw</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cutting box</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Shower curtain</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mirror</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Hook</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Throw</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Lantern for block candle</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bag</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Price valid until 28 Mar</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rug, low pile</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>38</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>